--- a/database/seeders/data/user.xlsx
+++ b/database/seeders/data/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9CE79E-368C-4DA6-9061-4A70265F68D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA1402B-D9CC-4F5C-91A6-4E787AAAB730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="0" windowWidth="19812" windowHeight="12240" xr2:uid="{4F05F11B-7BE7-4A60-AE21-2443A2B595D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F05F11B-7BE7-4A60-AE21-2443A2B595D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="434">
   <si>
     <t>name</t>
   </si>
@@ -57,18 +57,9 @@
     <t>2141720215@student.polinema.ac.id</t>
   </si>
   <si>
-    <t>Fawaa'el Akbar Firdaus</t>
-  </si>
-  <si>
     <t>mahasiswa</t>
   </si>
   <si>
-    <t>2141720216@student.polinema.ac.id</t>
-  </si>
-  <si>
-    <t>Mahasiswa</t>
-  </si>
-  <si>
     <t>Hendra Pradibta, SE., M.Sc.</t>
   </si>
   <si>
@@ -82,6 +73,1260 @@
   </si>
   <si>
     <t>super_admin</t>
+  </si>
+  <si>
+    <t>198305212006041000</t>
+  </si>
+  <si>
+    <t>ABDULLAH KHAFABI</t>
+  </si>
+  <si>
+    <t>ACHMAD ALY ABDULLOH</t>
+  </si>
+  <si>
+    <t>ACHMAD RACHMANDIKA RIZKY PRATAMA</t>
+  </si>
+  <si>
+    <t>ADITYA KUNCARA BAKTI</t>
+  </si>
+  <si>
+    <t>AGUS PRAYOGI</t>
+  </si>
+  <si>
+    <t>AIDO LUTHFI AL HAKIM</t>
+  </si>
+  <si>
+    <t>ALFAN FARCHI AL-HADI</t>
+  </si>
+  <si>
+    <t>ALFAN MARCEL MULYAWAN</t>
+  </si>
+  <si>
+    <t>ALWAN ALAWI</t>
+  </si>
+  <si>
+    <t>ARHAN WINDU RIZKI PUTRA BUDIANTO</t>
+  </si>
+  <si>
+    <t>DANDY WAHYU SYAHPUTRA</t>
+  </si>
+  <si>
+    <t>DIAH PUTRI NOFIANTI</t>
+  </si>
+  <si>
+    <t>EVI AMALIA MIDFIA</t>
+  </si>
+  <si>
+    <t>JAUHAR MAULANA A'LA</t>
+  </si>
+  <si>
+    <t>KURNIAWATI AGUSTINA</t>
+  </si>
+  <si>
+    <t>KYNANTIO CANDRA ABRARI</t>
+  </si>
+  <si>
+    <t>M. ROHMATUL MAULUDI</t>
+  </si>
+  <si>
+    <t>MIRZA PRISCILLA FARADIBA</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ALFARIZI ABDULLAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HAIKAL BULDAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HATTA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIFAT ANWAR</t>
+  </si>
+  <si>
+    <t>NAUFAL FALAH WAFIUDDIN</t>
+  </si>
+  <si>
+    <t>RIZKY ANGKATA PUTRA SASONGKO</t>
+  </si>
+  <si>
+    <t>SABBAHA NAUFAL ERWANDA</t>
+  </si>
+  <si>
+    <t>TARISTA DWI SILVIA</t>
+  </si>
+  <si>
+    <t>TESYA ERIANA</t>
+  </si>
+  <si>
+    <t>WIDYA INDAH PUSPITA SARI</t>
+  </si>
+  <si>
+    <t>YISHA ZUKHRUFIN ANGELYNA</t>
+  </si>
+  <si>
+    <t>ABIMA FADRICHO SYUHADAK</t>
+  </si>
+  <si>
+    <t>ANDREAGAZY IZA AMERIANTO</t>
+  </si>
+  <si>
+    <t>ARMAND MAULANA ANDIKA PUTRA</t>
+  </si>
+  <si>
+    <t>ARYA CHANDRA KUSUMA</t>
+  </si>
+  <si>
+    <t>ASTRID RISA WIDIANA</t>
+  </si>
+  <si>
+    <t>ASYIFA NURFADILAH</t>
+  </si>
+  <si>
+    <t>BAGUS ARNOVARIO WIBOWO</t>
+  </si>
+  <si>
+    <t>BIMANTARA DWI CAHYO</t>
+  </si>
+  <si>
+    <t>DIDO IMAM PADMANEGARA</t>
+  </si>
+  <si>
+    <t>ELIS NURHIDAYATI</t>
+  </si>
+  <si>
+    <t>FAHRIDANA AHMAD RAYYANSYAH</t>
+  </si>
+  <si>
+    <t>FARADILLA ROUDHOTUL SA'NAA</t>
+  </si>
+  <si>
+    <t>FARID FITRIANSAH ALFARIZI</t>
+  </si>
+  <si>
+    <t>LUKMAN EKA SEPTIAWAN</t>
+  </si>
+  <si>
+    <t>MOCH. REYNALD SILVA BAKTIAR</t>
+  </si>
+  <si>
+    <t>MUHAMMAD BAGUS INDRAWAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD PAKSI SATRIO BAYU DHIYAUL HAQ</t>
+  </si>
+  <si>
+    <t>MULKI HAKIM</t>
+  </si>
+  <si>
+    <t>RENDY PUTRA KUSUMA</t>
+  </si>
+  <si>
+    <t>RICKY PUTRA PRATAMA TEDJO</t>
+  </si>
+  <si>
+    <t>RIFKI FAKHRUDIN</t>
+  </si>
+  <si>
+    <t>SATRIA ABRAR SAMBARANA WIRA PRATAMA</t>
+  </si>
+  <si>
+    <t>YOGIANNA NUR FEBRIANTI</t>
+  </si>
+  <si>
+    <t>YONATAN EFRASSETYO</t>
+  </si>
+  <si>
+    <t>ACHMAD MAULANA HAMZAH</t>
+  </si>
+  <si>
+    <t>ALVANZA SAPUTRA YUDHA</t>
+  </si>
+  <si>
+    <t>ANYA CALLISSTA CHRISWANTARI</t>
+  </si>
+  <si>
+    <t>BERYL FUNKY MUBAROK</t>
+  </si>
+  <si>
+    <t>CANDRA AHMAD DANI</t>
+  </si>
+  <si>
+    <t>CINDY LAILI LARASATI</t>
+  </si>
+  <si>
+    <t>DIKA ARIE ARRIFKY</t>
+  </si>
+  <si>
+    <t>FAHMI YAHYA</t>
+  </si>
+  <si>
+    <t>GILANG PURNOMO</t>
+  </si>
+  <si>
+    <t>GWIDO PUTRA WIJAYA</t>
+  </si>
+  <si>
+    <t>HIDAYAT WIDI SAPUTRA</t>
+  </si>
+  <si>
+    <t>ILHAM FATURACHMAN</t>
+  </si>
+  <si>
+    <t>INNAMA MAESA PUTRI</t>
+  </si>
+  <si>
+    <t>JIHA RAMDHAN</t>
+  </si>
+  <si>
+    <t>LELYTA MEYDA AYU BUDIYANTI</t>
+  </si>
+  <si>
+    <t>M. FATIH AL GHIFARY</t>
+  </si>
+  <si>
+    <t>M. FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>MOCH. ALFIN BURHANUDIN ALQODRI</t>
+  </si>
+  <si>
+    <t>MUHAMAD SYAIFULLAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NUR AZIZ</t>
+  </si>
+  <si>
+    <t>NAJWA ALYA NURIZZAH</t>
+  </si>
+  <si>
+    <t>NECHA SYIFA SYAFITRI</t>
+  </si>
+  <si>
+    <t>NOKLENT FARDIAN ERIX</t>
+  </si>
+  <si>
+    <t>OCTRIAN ADILUHUNG TITO PUTRA</t>
+  </si>
+  <si>
+    <t>SATRIO AHMAD RAMADHANI</t>
+  </si>
+  <si>
+    <t>SESY TANA LINA RAHMATIN</t>
+  </si>
+  <si>
+    <t>TAUFIK DIMAS EDYSTARA</t>
+  </si>
+  <si>
+    <t>VINCENTIUS LEONANDA PRABOWO</t>
+  </si>
+  <si>
+    <t>YANUAR RIZKI AMINUDIN</t>
+  </si>
+  <si>
+    <t>ABDUL GHOFUR ALMIQBADI</t>
+  </si>
+  <si>
+    <t>ABDUL RAHMAN HANIF DARMAWAN</t>
+  </si>
+  <si>
+    <t>ACHMAD NABIL AFGAREZA</t>
+  </si>
+  <si>
+    <t>ALFREDA DHAIFULLAH MAHEZWARA</t>
+  </si>
+  <si>
+    <t>AMIN AZIZ SUDJUD</t>
+  </si>
+  <si>
+    <t>ARJUNA SATRIA HUTAMA</t>
+  </si>
+  <si>
+    <t>ARYA BAYU SAMODRA</t>
+  </si>
+  <si>
+    <t>ARYAN ZUDA FIRDAUS</t>
+  </si>
+  <si>
+    <t>ASMAUL RIZWAN</t>
+  </si>
+  <si>
+    <t>DIFA NAYA SARI PASHA</t>
+  </si>
+  <si>
+    <t>DINA KUMALA SARI</t>
+  </si>
+  <si>
+    <t>FAZEL PRIYONO</t>
+  </si>
+  <si>
+    <t>FIKAR BAHRUL SANTOSO</t>
+  </si>
+  <si>
+    <t>ILHAM DHARMA ATMAJA</t>
+  </si>
+  <si>
+    <t>LINDA OCTAVIANI</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ARIQ BAIHAQI</t>
+  </si>
+  <si>
+    <t>MUFLIHA HAFSYAH SHAHIEZA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DWI FEBRIAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NURIL HUDA</t>
+  </si>
+  <si>
+    <t>NURFINKA LAILASARI</t>
+  </si>
+  <si>
+    <t>QRUZEETA PRASNA UMERI AL JAWY</t>
+  </si>
+  <si>
+    <t>RAFAZL RADANA DIVA</t>
+  </si>
+  <si>
+    <t>RAIHAN NUR PRATAMA</t>
+  </si>
+  <si>
+    <t>RAYA RABBANI ANANTA ARYASATYA</t>
+  </si>
+  <si>
+    <t>RAYMON DEVTANT</t>
+  </si>
+  <si>
+    <t>SILEYSA FAEDATUL NURAINI</t>
+  </si>
+  <si>
+    <t>YULIKE DWI NURCAHYANI</t>
+  </si>
+  <si>
+    <t>ARSYA FIKRI SABILILLAH</t>
+  </si>
+  <si>
+    <t>AZARIA AMANDA</t>
+  </si>
+  <si>
+    <t>DESY DWI PUSPITA</t>
+  </si>
+  <si>
+    <t>FADHIL SYAHIDAN ARIZKI</t>
+  </si>
+  <si>
+    <t>FATMA AZZAHRA ALIF HIDAYAH</t>
+  </si>
+  <si>
+    <t>HAFIZ AHMAD ZAIM KUNTORO</t>
+  </si>
+  <si>
+    <t>MARIA SAVIRA</t>
+  </si>
+  <si>
+    <t>MEUTIA ARAFAH HIDAYAT</t>
+  </si>
+  <si>
+    <t>MOCHAMMAD TANGGAQ DIRAT SAPUTRA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ATABIK ZINKY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIF'AT SYAMLAN</t>
+  </si>
+  <si>
+    <t>NADIA MINATUL SALMA</t>
+  </si>
+  <si>
+    <t>NAFISAH ALIYAH KHUMAINI</t>
+  </si>
+  <si>
+    <t>NANDA RICCO SATRIA INDRAWAN</t>
+  </si>
+  <si>
+    <t>NAZWA AZAHRA AUDINA</t>
+  </si>
+  <si>
+    <t>PRIMAYUNITA PUTRI AGUSTINE</t>
+  </si>
+  <si>
+    <t>RACHMAD ZAKI SETYAWAN</t>
+  </si>
+  <si>
+    <t>RIFAT DJIBRAN</t>
+  </si>
+  <si>
+    <t>SABRINA IZZAH RAMADHANI</t>
+  </si>
+  <si>
+    <t>SASTRA MAHEVA ZAKY</t>
+  </si>
+  <si>
+    <t>SOFIAH</t>
+  </si>
+  <si>
+    <t>TERSIQO ALFAREZEL</t>
+  </si>
+  <si>
+    <t>TYFOSA HELGA WIJAYA</t>
+  </si>
+  <si>
+    <t>ZASKIA MAULIDINA MUTIARA HATI</t>
+  </si>
+  <si>
+    <t>ADITYA YUHANDA PUTRA</t>
+  </si>
+  <si>
+    <t>ALDO FEBRIANSYAH</t>
+  </si>
+  <si>
+    <t>ALDO KHRISNA WIJAYA</t>
+  </si>
+  <si>
+    <t>AQILA NUR AZZA</t>
+  </si>
+  <si>
+    <t>ARIMBI PUTRI HAPSARI</t>
+  </si>
+  <si>
+    <t>ATHALLAH AYUDYA PARAMESTI</t>
+  </si>
+  <si>
+    <t>BAYU TRIWIBOWO</t>
+  </si>
+  <si>
+    <t>CLAUDYA DESTINE JULIA HANDOKO</t>
+  </si>
+  <si>
+    <t>DAHNIAR DAVINA</t>
+  </si>
+  <si>
+    <t>DEVIN I'ZAZ RADIN DEWANTORO</t>
+  </si>
+  <si>
+    <t>DIAJENG SEKAR ARUM</t>
+  </si>
+  <si>
+    <t>FAIZA ANATHASYA EKA FALEN</t>
+  </si>
+  <si>
+    <t>GEGAS ANUGRAH DERAJAT</t>
+  </si>
+  <si>
+    <t>HUSEIN FADHLULLAH</t>
+  </si>
+  <si>
+    <t>KANAYA ABDIELARAMADHANI HIDAYAT</t>
+  </si>
+  <si>
+    <t>KARINA IKA INDASA</t>
+  </si>
+  <si>
+    <t>KHUZAIMA FILLA JANUARTHA</t>
+  </si>
+  <si>
+    <t>LOUISE NAZAROSSA</t>
+  </si>
+  <si>
+    <t>LYRA FAIQAH BILQIS</t>
+  </si>
+  <si>
+    <t>MOCHAMMAD AUDRIC ANDHIKA HIDAYATULLOH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HAMDAN UBAIDILLAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IRCHAM DAFFANSYAH ISMAIL</t>
+  </si>
+  <si>
+    <t>MUHAMMAD REISHI FAUZI AUGURI</t>
+  </si>
+  <si>
+    <t>PAUDRA AKBAR BUANA</t>
+  </si>
+  <si>
+    <t>QUSNUL DIAH MAWANTI</t>
+  </si>
+  <si>
+    <t>RAFIF TRI HARTANTO</t>
+  </si>
+  <si>
+    <t>REZA ANGELINA FEBRIYANTI</t>
+  </si>
+  <si>
+    <t>SATRIA RAKHMADANI</t>
+  </si>
+  <si>
+    <t>VITA EKA SARASWATI</t>
+  </si>
+  <si>
+    <t>YONANDA MAYLA RUSDIATY</t>
+  </si>
+  <si>
+    <t>A. MUH. FAQIH FADILLAH GAU</t>
+  </si>
+  <si>
+    <t>ADAM SAFRILA IRAWAN</t>
+  </si>
+  <si>
+    <t>AHMAD HIDAYAT PERMANA</t>
+  </si>
+  <si>
+    <t>AHMAD MIMNA'I FIDDIN</t>
+  </si>
+  <si>
+    <t>ANNISA PRISSILYA</t>
+  </si>
+  <si>
+    <t>AURELIA NASYA LAKSMITHA WINDIONORA</t>
+  </si>
+  <si>
+    <t>CARIESKA BERLIANA NOVITA KUSUMA WARDANI</t>
+  </si>
+  <si>
+    <t>CHIKAL NAZMI MAHIRA</t>
+  </si>
+  <si>
+    <t>FAHMI MARDIANSYAH</t>
+  </si>
+  <si>
+    <t>FAIQ RAMZY NABIGHAH</t>
+  </si>
+  <si>
+    <t>GHANIYU ILMI SAPUTRA</t>
+  </si>
+  <si>
+    <t>INGGA CHINTIA SARI</t>
+  </si>
+  <si>
+    <t>KHARISMA ETANA FEBRIANTO</t>
+  </si>
+  <si>
+    <t>KHOIRUL HIDAYAH</t>
+  </si>
+  <si>
+    <t>MARITZA ULFA HURIYAH</t>
+  </si>
+  <si>
+    <t>MOCHAMMAD ALFITO DIANOVA</t>
+  </si>
+  <si>
+    <t>NASYWA SALMA SALSA BILA</t>
+  </si>
+  <si>
+    <t>NASYWA SYAFINKA WIDYAMARA</t>
+  </si>
+  <si>
+    <t>REZA KURNIAWAN</t>
+  </si>
+  <si>
+    <t>SYFFA FIRDAUSYAH HANI PUTRA</t>
+  </si>
+  <si>
+    <t>TAUFIQ SATRIAJI ARIYA PUTRA RIYADI</t>
+  </si>
+  <si>
+    <t>ZULFA ULINNUHA AZAZI</t>
+  </si>
+  <si>
+    <t>ACHMAD CHAIDAR ISMAIL</t>
+  </si>
+  <si>
+    <t>ACHMAD NOVA ARDIANSYAH</t>
+  </si>
+  <si>
+    <t>ACHMAD SAVERO WINDI PRADANA</t>
+  </si>
+  <si>
+    <t>ADESTA ANY FITRIANI</t>
+  </si>
+  <si>
+    <t>ARYA WILDHANI PUTRA</t>
+  </si>
+  <si>
+    <t>ASHRAF NAWAF</t>
+  </si>
+  <si>
+    <t>AZIZAH PUTRI DIKMARA</t>
+  </si>
+  <si>
+    <t>BAGUS NURCAHYO</t>
+  </si>
+  <si>
+    <t>BANGKIT MAULANA CANIAGO</t>
+  </si>
+  <si>
+    <t>CLAURIA DWI PUTRI NABILLAH</t>
+  </si>
+  <si>
+    <t>DELINDA CANDRAWATI EKA PUTRI</t>
+  </si>
+  <si>
+    <t>EREEN LOURENZA NATALIA MAMAHI</t>
+  </si>
+  <si>
+    <t>FARHAN ASYAM ALFITRA</t>
+  </si>
+  <si>
+    <t>FAUZAN ZULFA RAMADHAN</t>
+  </si>
+  <si>
+    <t>INDAH RETNO IRIANI</t>
+  </si>
+  <si>
+    <t>INDIRA IRAWATI PUTRI</t>
+  </si>
+  <si>
+    <t>LAITA ZIDAN</t>
+  </si>
+  <si>
+    <t>MUKHAMAD YUSA GALANG FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>NADILLA AMANDA MARTHA AFRHISSA</t>
+  </si>
+  <si>
+    <t>NASSWA MAURA SYAWALIA</t>
+  </si>
+  <si>
+    <t>NIKEN MAHARANI PERMATA</t>
+  </si>
+  <si>
+    <t>OKTAVIANINDA KUSUMADEWI</t>
+  </si>
+  <si>
+    <t>RIVALDITO ILHAM PRATAMA</t>
+  </si>
+  <si>
+    <t>2041720050@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720039@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2041720125@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2041720231@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720025@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720136@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720084@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720266@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720178@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720227@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720002@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720054@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720030@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720186@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720040@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720206@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720062@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720254@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720142@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720080@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720021@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720006@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720129@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720223@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720221@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720014@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720024@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720034@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141720013@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720025@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720146@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720090@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720228@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720250@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720257@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720225@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720188@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720111@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720035@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720158@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720205@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720055@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720049@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720203@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720217@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720150@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720131@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720124@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720204@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720218@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720260@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720261@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241720063@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720172@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720182@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720234@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720256@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720187@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720038@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720232@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720089@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720042@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720103@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720157@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107023001@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720235@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720043@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720124@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720194@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720099@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720024@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720013@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720237@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720230@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720167@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720082@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720078@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720163@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720029@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720062@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720149@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720030@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020155@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020232@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020001@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020219@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020079@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020158@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020162@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020060@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341720014@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020213@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020072@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020033@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020160@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020220@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020002@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020161@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020147@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020081@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020004@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020211@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020084@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020082@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020085@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020159@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020009@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020231@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107020146@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060121@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060060@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060145@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060125@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060046@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060103@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060144@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060078@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060126@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060131@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060150@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060141@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060066@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060058@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060146@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060094@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060107@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060138@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060013@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060116@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060065@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060089@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060071@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>244107060056@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760050@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760146@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760091@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760022@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760016@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760061@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760073@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760008@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760023@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760034@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760070@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760105@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760140@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760134@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760118@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760042@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760078@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760117@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760013@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760094@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760190@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760115@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760012@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760063@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760035@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760038@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760015@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760106@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760082@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2341760184@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760124@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760058@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760087@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760136@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760099@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760084@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760027@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760122@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760064@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760024@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760132@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760018@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760009@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760021@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760119@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760106@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760140@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760002@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760059@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760005@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760142@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2241760131@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762102@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141764160@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762135@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762063@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762093@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762090@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762017@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762120@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762143@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762029@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762026@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762044@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762138@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762074@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762104@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762022@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762100@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762105@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762050@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762027@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762006@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762131@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>2141762146@student.polinema.ac.id</t>
+  </si>
+  <si>
+    <t>FAWAA'EL AKBAR FIRDAUS</t>
   </si>
 </sst>
 </file>
@@ -126,9 +1371,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,108 +1701,3633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5798A644-C69D-481C-A347-D1C8D357BB47}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21417210215</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2141720215</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2041720050</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2041720050</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>21417210215</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2141720215</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>21417210216</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>2141720216</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1.9830521200604099E+17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="B6" s="4">
+        <v>2141720039</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2141720039</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2041720125</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2041720125</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2041720231</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2041720231</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2141720025</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2141720025</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2141720136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2141720136</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2141720084</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2141720084</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2141720266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2141720266</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2141720178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2141720178</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2141720227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2141720227</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2141720002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2141720002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2141720054</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2141720054</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2141720030</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2141720030</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2141720186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2141720186</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2141720040</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2141720040</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2141720206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2141720206</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2141720062</v>
+      </c>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2141720062</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2141720254</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2141720254</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2141720142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2141720142</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2141720080</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2141720080</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2141720021</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2141720021</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2141720006</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2141720006</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2141720129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2141720129</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2141720223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2141720223</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2141720221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2141720221</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2141720014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2141720014</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2141720024</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2141720024</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2141720034</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2141720034</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2141720013</v>
+      </c>
+      <c r="C33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2141720013</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2241720025</v>
+      </c>
+      <c r="C34" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2241720025</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2241720146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2241720146</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2241720090</v>
+      </c>
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2241720090</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2241720228</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2241720228</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2241720250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2241720250</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2241720257</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2241720257</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2241720225</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2241720225</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2241720188</v>
+      </c>
+      <c r="C41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2241720188</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2241720111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2241720111</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2241720035</v>
+      </c>
+      <c r="C43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2241720035</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2241720158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2241720158</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2241720205</v>
+      </c>
+      <c r="C45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2241720205</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2241720055</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2241720055</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2241720049</v>
+      </c>
+      <c r="C47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2241720049</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2241720203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2241720203</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2241720217</v>
+      </c>
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2241720217</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2241720150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2241720150</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2241720131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2241720131</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2241720124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2241720124</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2241720204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2241720204</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2241720218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2241720218</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2241720260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2241720260</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2241720261</v>
+      </c>
+      <c r="C56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2241720261</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2241720063</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2241720063</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2341720172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2341720172</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2341720182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2341720182</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2341720234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2341720234</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2341720256</v>
+      </c>
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2341720256</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2341720187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2341720187</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2341720038</v>
+      </c>
+      <c r="C63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2341720038</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2341720232</v>
+      </c>
+      <c r="C64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2341720232</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2341720089</v>
+      </c>
+      <c r="C65" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2341720089</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2341720042</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2341720042</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2341720103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2341720103</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="4">
+        <v>2341720157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2341720157</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="4">
+        <v>244107023001</v>
+      </c>
+      <c r="C69" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" s="4">
+        <v>244107023001</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2341720235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2341720235</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2341720043</v>
+      </c>
+      <c r="C71" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2341720043</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="4">
+        <v>2341720124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2341720124</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2341720194</v>
+      </c>
+      <c r="C73" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2341720194</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2341720099</v>
+      </c>
+      <c r="C74" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2341720099</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2341720024</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2341720024</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2341720013</v>
+      </c>
+      <c r="C76" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2341720013</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2341720237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2341720237</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="4">
+        <v>2341720230</v>
+      </c>
+      <c r="C78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2341720230</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2341720167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2341720167</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2341720082</v>
+      </c>
+      <c r="C80" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2341720082</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2341720078</v>
+      </c>
+      <c r="C81" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2341720078</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2341720163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2341720163</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2341720029</v>
+      </c>
+      <c r="C83" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2341720029</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2341720062</v>
+      </c>
+      <c r="C84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2341720062</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="4">
+        <v>2341720149</v>
+      </c>
+      <c r="C85" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2341720149</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2341720030</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2341720030</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="4">
+        <v>244107020155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" s="4">
+        <v>244107020155</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="4">
+        <v>244107020232</v>
+      </c>
+      <c r="C88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D88" s="4">
+        <v>244107020232</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="4">
+        <v>244107020001</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" s="4">
+        <v>244107020001</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="4">
+        <v>244107020219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" s="4">
+        <v>244107020219</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="4">
+        <v>244107020079</v>
+      </c>
+      <c r="C91" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" s="4">
+        <v>244107020079</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="4">
+        <v>244107020158</v>
+      </c>
+      <c r="C92" t="s">
+        <v>312</v>
+      </c>
+      <c r="D92" s="4">
+        <v>244107020158</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="4">
+        <v>244107020162</v>
+      </c>
+      <c r="C93" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="4">
+        <v>244107020162</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="4">
+        <v>244107020060</v>
+      </c>
+      <c r="C94" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" s="4">
+        <v>244107020060</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="4">
+        <v>2341720014</v>
+      </c>
+      <c r="C95" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2341720014</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="4">
+        <v>244107020213</v>
+      </c>
+      <c r="C96" t="s">
+        <v>316</v>
+      </c>
+      <c r="D96" s="4">
+        <v>244107020213</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="4">
+        <v>244107020072</v>
+      </c>
+      <c r="C97" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" s="4">
+        <v>244107020072</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="4">
+        <v>244107020033</v>
+      </c>
+      <c r="C98" t="s">
+        <v>318</v>
+      </c>
+      <c r="D98" s="4">
+        <v>244107020033</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="4">
+        <v>244107020160</v>
+      </c>
+      <c r="C99" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="4">
+        <v>244107020160</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="4">
+        <v>244107020220</v>
+      </c>
+      <c r="C100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="4">
+        <v>244107020220</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="4">
+        <v>244107020002</v>
+      </c>
+      <c r="C101" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" s="4">
+        <v>244107020002</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="4">
+        <v>244107020161</v>
+      </c>
+      <c r="C102" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" s="4">
+        <v>244107020161</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="4">
+        <v>244107020147</v>
+      </c>
+      <c r="C103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D103" s="4">
+        <v>244107020147</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="4">
+        <v>244107020081</v>
+      </c>
+      <c r="C104" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="4">
+        <v>244107020081</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="4">
+        <v>244107020004</v>
+      </c>
+      <c r="C105" t="s">
+        <v>325</v>
+      </c>
+      <c r="D105" s="4">
+        <v>244107020004</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="4">
+        <v>244107020211</v>
+      </c>
+      <c r="C106" t="s">
+        <v>326</v>
+      </c>
+      <c r="D106" s="4">
+        <v>244107020211</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="4">
+        <v>244107020084</v>
+      </c>
+      <c r="C107" t="s">
+        <v>327</v>
+      </c>
+      <c r="D107" s="4">
+        <v>244107020084</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="4">
+        <v>244107020082</v>
+      </c>
+      <c r="C108" t="s">
+        <v>328</v>
+      </c>
+      <c r="D108" s="4">
+        <v>244107020082</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="4">
+        <v>244107020085</v>
+      </c>
+      <c r="C109" t="s">
+        <v>329</v>
+      </c>
+      <c r="D109" s="4">
+        <v>244107020085</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="4">
+        <v>244107020159</v>
+      </c>
+      <c r="C110" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" s="4">
+        <v>244107020159</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="4">
+        <v>244107020009</v>
+      </c>
+      <c r="C111" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" s="4">
+        <v>244107020009</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="4">
+        <v>244107020231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D112" s="4">
+        <v>244107020231</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="4">
+        <v>244107020146</v>
+      </c>
+      <c r="C113" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" s="4">
+        <v>244107020146</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="4">
+        <v>244107060121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>334</v>
+      </c>
+      <c r="D114" s="4">
+        <v>244107060121</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="4">
+        <v>244107060060</v>
+      </c>
+      <c r="C115" t="s">
+        <v>335</v>
+      </c>
+      <c r="D115" s="4">
+        <v>244107060060</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="4">
+        <v>244107060145</v>
+      </c>
+      <c r="C116" t="s">
+        <v>336</v>
+      </c>
+      <c r="D116" s="4">
+        <v>244107060145</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="4">
+        <v>244107060125</v>
+      </c>
+      <c r="C117" t="s">
+        <v>337</v>
+      </c>
+      <c r="D117" s="4">
+        <v>244107060125</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="4">
+        <v>244107060046</v>
+      </c>
+      <c r="C118" t="s">
+        <v>338</v>
+      </c>
+      <c r="D118" s="4">
+        <v>244107060046</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="4">
+        <v>244107060103</v>
+      </c>
+      <c r="C119" t="s">
+        <v>339</v>
+      </c>
+      <c r="D119" s="4">
+        <v>244107060103</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="4">
+        <v>244107060144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>340</v>
+      </c>
+      <c r="D120" s="4">
+        <v>244107060144</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="4">
+        <v>244107060078</v>
+      </c>
+      <c r="C121" t="s">
+        <v>341</v>
+      </c>
+      <c r="D121" s="4">
+        <v>244107060078</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="4">
+        <v>244107060126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>342</v>
+      </c>
+      <c r="D122" s="4">
+        <v>244107060126</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="4">
+        <v>244107060131</v>
+      </c>
+      <c r="C123" t="s">
+        <v>343</v>
+      </c>
+      <c r="D123" s="4">
+        <v>244107060131</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="4">
+        <v>244107060150</v>
+      </c>
+      <c r="C124" t="s">
+        <v>344</v>
+      </c>
+      <c r="D124" s="4">
+        <v>244107060150</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" s="4">
+        <v>244107060141</v>
+      </c>
+      <c r="C125" t="s">
+        <v>345</v>
+      </c>
+      <c r="D125" s="4">
+        <v>244107060141</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="4">
+        <v>244107060066</v>
+      </c>
+      <c r="C126" t="s">
+        <v>346</v>
+      </c>
+      <c r="D126" s="4">
+        <v>244107060066</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="4">
+        <v>244107060058</v>
+      </c>
+      <c r="C127" t="s">
+        <v>347</v>
+      </c>
+      <c r="D127" s="4">
+        <v>244107060058</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="4">
+        <v>244107060146</v>
+      </c>
+      <c r="C128" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" s="4">
+        <v>244107060146</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="4">
+        <v>244107060094</v>
+      </c>
+      <c r="C129" t="s">
+        <v>349</v>
+      </c>
+      <c r="D129" s="4">
+        <v>244107060094</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="4">
+        <v>244107060107</v>
+      </c>
+      <c r="C130" t="s">
+        <v>350</v>
+      </c>
+      <c r="D130" s="4">
+        <v>244107060107</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="4">
+        <v>244107060138</v>
+      </c>
+      <c r="C131" t="s">
+        <v>351</v>
+      </c>
+      <c r="D131" s="4">
+        <v>244107060138</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="4">
+        <v>244107060013</v>
+      </c>
+      <c r="C132" t="s">
+        <v>352</v>
+      </c>
+      <c r="D132" s="4">
+        <v>244107060013</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="4">
+        <v>244107060116</v>
+      </c>
+      <c r="C133" t="s">
+        <v>353</v>
+      </c>
+      <c r="D133" s="4">
+        <v>244107060116</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="4">
+        <v>244107060065</v>
+      </c>
+      <c r="C134" t="s">
+        <v>354</v>
+      </c>
+      <c r="D134" s="4">
+        <v>244107060065</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="4">
+        <v>244107060089</v>
+      </c>
+      <c r="C135" t="s">
+        <v>355</v>
+      </c>
+      <c r="D135" s="4">
+        <v>244107060089</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="4">
+        <v>244107060071</v>
+      </c>
+      <c r="C136" t="s">
+        <v>356</v>
+      </c>
+      <c r="D136" s="4">
+        <v>244107060071</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="4">
+        <v>244107060056</v>
+      </c>
+      <c r="C137" t="s">
+        <v>357</v>
+      </c>
+      <c r="D137" s="4">
+        <v>244107060056</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2341760050</v>
+      </c>
+      <c r="C138" t="s">
+        <v>358</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2341760050</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2341760146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>359</v>
+      </c>
+      <c r="D139" s="1">
+        <v>2341760146</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2341760091</v>
+      </c>
+      <c r="C140" t="s">
+        <v>360</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2341760091</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2341760022</v>
+      </c>
+      <c r="C141" t="s">
+        <v>361</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2341760022</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2341760016</v>
+      </c>
+      <c r="C142" t="s">
+        <v>362</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2341760016</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2341760061</v>
+      </c>
+      <c r="C143" t="s">
+        <v>363</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2341760061</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2341760073</v>
+      </c>
+      <c r="C144" t="s">
+        <v>364</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2341760073</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2341760008</v>
+      </c>
+      <c r="C145" t="s">
+        <v>365</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2341760008</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2341760023</v>
+      </c>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
+      <c r="D146" s="1">
+        <v>2341760023</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2341760034</v>
+      </c>
+      <c r="C147" t="s">
+        <v>367</v>
+      </c>
+      <c r="D147" s="1">
+        <v>2341760034</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2341760070</v>
+      </c>
+      <c r="C148" t="s">
+        <v>368</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2341760070</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2341760105</v>
+      </c>
+      <c r="C149" t="s">
+        <v>369</v>
+      </c>
+      <c r="D149" s="1">
+        <v>2341760105</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2341760140</v>
+      </c>
+      <c r="C150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2341760140</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2341760134</v>
+      </c>
+      <c r="C151" t="s">
+        <v>371</v>
+      </c>
+      <c r="D151" s="1">
+        <v>2341760134</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2341760118</v>
+      </c>
+      <c r="C152" t="s">
+        <v>372</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2341760118</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2341760042</v>
+      </c>
+      <c r="C153" t="s">
+        <v>373</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2341760042</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2341760078</v>
+      </c>
+      <c r="C154" t="s">
+        <v>374</v>
+      </c>
+      <c r="D154" s="1">
+        <v>2341760078</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2341760117</v>
+      </c>
+      <c r="C155" t="s">
+        <v>375</v>
+      </c>
+      <c r="D155" s="1">
+        <v>2341760117</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2341760013</v>
+      </c>
+      <c r="C156" t="s">
+        <v>376</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2341760013</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2341760094</v>
+      </c>
+      <c r="C157" t="s">
+        <v>377</v>
+      </c>
+      <c r="D157" s="1">
+        <v>2341760094</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2341760190</v>
+      </c>
+      <c r="C158" t="s">
+        <v>378</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2341760190</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2341760115</v>
+      </c>
+      <c r="C159" t="s">
+        <v>379</v>
+      </c>
+      <c r="D159" s="1">
+        <v>2341760115</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2341760012</v>
+      </c>
+      <c r="C160" t="s">
+        <v>380</v>
+      </c>
+      <c r="D160" s="1">
+        <v>2341760012</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2341760063</v>
+      </c>
+      <c r="C161" t="s">
+        <v>381</v>
+      </c>
+      <c r="D161" s="1">
+        <v>2341760063</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2341760035</v>
+      </c>
+      <c r="C162" t="s">
+        <v>382</v>
+      </c>
+      <c r="D162" s="1">
+        <v>2341760035</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2241760038</v>
+      </c>
+      <c r="C163" t="s">
+        <v>383</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2241760038</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2341760015</v>
+      </c>
+      <c r="C164" t="s">
+        <v>384</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2341760015</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2341760106</v>
+      </c>
+      <c r="C165" t="s">
+        <v>385</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2341760106</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2341760082</v>
+      </c>
+      <c r="C166" t="s">
+        <v>386</v>
+      </c>
+      <c r="D166" s="1">
+        <v>2341760082</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2341760184</v>
+      </c>
+      <c r="C167" t="s">
+        <v>387</v>
+      </c>
+      <c r="D167" s="1">
+        <v>2341760184</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2241760124</v>
+      </c>
+      <c r="C168" t="s">
+        <v>388</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2241760124</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2241760058</v>
+      </c>
+      <c r="C169" t="s">
+        <v>389</v>
+      </c>
+      <c r="D169" s="1">
+        <v>2241760058</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2241760087</v>
+      </c>
+      <c r="C170" t="s">
+        <v>390</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2241760087</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2241760136</v>
+      </c>
+      <c r="C171" t="s">
+        <v>391</v>
+      </c>
+      <c r="D171" s="1">
+        <v>2241760136</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2241760099</v>
+      </c>
+      <c r="C172" t="s">
+        <v>392</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2241760099</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2241760084</v>
+      </c>
+      <c r="C173" t="s">
+        <v>393</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2241760084</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2241760027</v>
+      </c>
+      <c r="C174" t="s">
+        <v>394</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2241760027</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2241760122</v>
+      </c>
+      <c r="C175" t="s">
+        <v>395</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2241760122</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2241760064</v>
+      </c>
+      <c r="C176" t="s">
+        <v>396</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2241760064</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2241760024</v>
+      </c>
+      <c r="C177" t="s">
+        <v>397</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2241760024</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2241760132</v>
+      </c>
+      <c r="C178" t="s">
+        <v>398</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2241760132</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2241760018</v>
+      </c>
+      <c r="C179" t="s">
+        <v>399</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2241760018</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2241760009</v>
+      </c>
+      <c r="C180" t="s">
+        <v>400</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2241760009</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2241760021</v>
+      </c>
+      <c r="C181" t="s">
+        <v>401</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2241760021</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2241760119</v>
+      </c>
+      <c r="C182" t="s">
+        <v>402</v>
+      </c>
+      <c r="D182" s="1">
+        <v>2241760119</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2241760106</v>
+      </c>
+      <c r="C183" t="s">
+        <v>403</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2241760106</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2241760140</v>
+      </c>
+      <c r="C184" t="s">
+        <v>404</v>
+      </c>
+      <c r="D184" s="1">
+        <v>2241760140</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2241760002</v>
+      </c>
+      <c r="C185" t="s">
+        <v>405</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2241760002</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2241760059</v>
+      </c>
+      <c r="C186" t="s">
+        <v>406</v>
+      </c>
+      <c r="D186" s="1">
+        <v>2241760059</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2241760005</v>
+      </c>
+      <c r="C187" t="s">
+        <v>407</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2241760005</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2241760142</v>
+      </c>
+      <c r="C188" t="s">
+        <v>408</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2241760142</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2241760131</v>
+      </c>
+      <c r="C189" t="s">
+        <v>409</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2241760131</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2141762102</v>
+      </c>
+      <c r="C190" t="s">
+        <v>410</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2141762102</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2141764160</v>
+      </c>
+      <c r="C191" t="s">
+        <v>411</v>
+      </c>
+      <c r="D191" s="1">
+        <v>2141764160</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2141762135</v>
+      </c>
+      <c r="C192" t="s">
+        <v>412</v>
+      </c>
+      <c r="D192" s="1">
+        <v>2141762135</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2141762063</v>
+      </c>
+      <c r="C193" t="s">
+        <v>413</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2141762063</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2141762093</v>
+      </c>
+      <c r="C194" t="s">
+        <v>414</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2141762093</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2141762090</v>
+      </c>
+      <c r="C195" t="s">
+        <v>415</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2141762090</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2141762017</v>
+      </c>
+      <c r="C196" t="s">
+        <v>416</v>
+      </c>
+      <c r="D196" s="1">
+        <v>2141762017</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2141762120</v>
+      </c>
+      <c r="C197" t="s">
+        <v>417</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2141762120</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2141762143</v>
+      </c>
+      <c r="C198" t="s">
+        <v>418</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2141762143</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2141762029</v>
+      </c>
+      <c r="C199" t="s">
+        <v>419</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2141762029</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2141762026</v>
+      </c>
+      <c r="C200" t="s">
+        <v>420</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2141762026</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2141762044</v>
+      </c>
+      <c r="C201" t="s">
+        <v>421</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2141762044</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2141762138</v>
+      </c>
+      <c r="C202" t="s">
+        <v>422</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2141762138</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2141762074</v>
+      </c>
+      <c r="C203" t="s">
+        <v>423</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2141762074</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2141762104</v>
+      </c>
+      <c r="C204" t="s">
+        <v>424</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2141762104</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2141762022</v>
+      </c>
+      <c r="C205" t="s">
+        <v>425</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2141762022</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2141762100</v>
+      </c>
+      <c r="C206" t="s">
+        <v>426</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2141762100</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2141762105</v>
+      </c>
+      <c r="C207" t="s">
+        <v>427</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2141762105</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2141762050</v>
+      </c>
+      <c r="C208" t="s">
+        <v>428</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2141762050</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2141762027</v>
+      </c>
+      <c r="C209" t="s">
+        <v>429</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2141762027</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2141762006</v>
+      </c>
+      <c r="C210" t="s">
+        <v>430</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2141762006</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2141762131</v>
+      </c>
+      <c r="C211" t="s">
+        <v>431</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2141762131</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2141762146</v>
+      </c>
+      <c r="C212" t="s">
+        <v>432</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2141762146</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{F2AC9207-E2C9-4A49-ABE1-7DF559DA53D0}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4914D11F-F725-4747-917F-D253074BDA4D}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{EE825ED4-E788-45ED-A343-EDD392EBC48F}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{4914D11F-F725-4747-917F-D253074BDA4D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EE825ED4-E788-45ED-A343-EDD392EBC48F}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{C4A95DAC-404F-409A-926F-76A45896F775}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{D56FD693-222E-40C0-AD44-BD6B93BC4B96}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{B24A0A3A-A35E-4164-8F33-D25CE5C5063D}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{05C4F3B7-3DFE-4C5D-B09D-C5F923D0F095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/data/user.xlsx
+++ b/database/seeders/data/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA1402B-D9CC-4F5C-91A6-4E787AAAB730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA27FDD-3991-4921-9EFD-BFBD358FE4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F05F11B-7BE7-4A60-AE21-2443A2B595D8}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4F05F11B-7BE7-4A60-AE21-2443A2B595D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="437">
   <si>
     <t>name</t>
   </si>
@@ -1327,6 +1327,15 @@
   </si>
   <si>
     <t>FAWAA'EL AKBAR FIRDAUS</t>
+  </si>
+  <si>
+    <t>angkatan</t>
+  </si>
+  <si>
+    <t>D4 Teknik Informatika</t>
+  </si>
+  <si>
+    <t>D4 Sistem Informasi Bisnis</t>
   </si>
 </sst>
 </file>
@@ -1701,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5798A644-C69D-481C-A347-D1C8D357BB47}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,11 +1721,11 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="6" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,10 +1739,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1746,11 +1761,11 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1763,11 +1778,11 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>433</v>
       </c>
@@ -1781,10 +1796,16 @@
         <v>2141720215</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1798,10 +1819,16 @@
         <v>2041720050</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F5" s="4">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1815,10 +1842,16 @@
         <v>2141720039</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F6" s="4">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1832,10 +1865,16 @@
         <v>2041720125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1849,10 +1888,16 @@
         <v>2041720231</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1866,10 +1911,16 @@
         <v>2141720025</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F9" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1883,10 +1934,16 @@
         <v>2141720136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F10" s="4">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1900,10 +1957,16 @@
         <v>2141720084</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F11" s="4">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1917,10 +1980,16 @@
         <v>2141720266</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F12" s="4">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1934,10 +2003,16 @@
         <v>2141720178</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F13" s="4">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1951,10 +2026,16 @@
         <v>2141720227</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F14" s="4">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,10 +2049,16 @@
         <v>2141720002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1985,10 +2072,16 @@
         <v>2141720054</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F16" s="4">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2002,10 +2095,16 @@
         <v>2141720030</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F17" s="4">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2019,10 +2118,16 @@
         <v>2141720186</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F18" s="4">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2036,10 +2141,16 @@
         <v>2141720040</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F19" s="4">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -2053,10 +2164,16 @@
         <v>2141720206</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F20" s="4">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2070,10 +2187,16 @@
         <v>2141720062</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F21" s="4">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2087,10 +2210,16 @@
         <v>2141720254</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F22" s="4">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2104,10 +2233,16 @@
         <v>2141720142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F23" s="4">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2121,10 +2256,16 @@
         <v>2141720080</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F24" s="4">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,10 +2279,16 @@
         <v>2141720021</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,10 +2302,16 @@
         <v>2141720006</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F26" s="4">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2172,10 +2325,16 @@
         <v>2141720129</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F27" s="4">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -2189,10 +2348,16 @@
         <v>2141720223</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F28" s="4">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2206,10 +2371,16 @@
         <v>2141720221</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F29" s="4">
+        <v>21</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2223,10 +2394,16 @@
         <v>2141720014</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F30" s="4">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2240,10 +2417,16 @@
         <v>2141720024</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F31" s="4">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2257,10 +2440,16 @@
         <v>2141720034</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F32" s="4">
+        <v>21</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2274,10 +2463,16 @@
         <v>2141720013</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F33" s="4">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2291,10 +2486,16 @@
         <v>2241720025</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F34" s="4">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2308,10 +2509,16 @@
         <v>2241720146</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F35" s="4">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2325,10 +2532,16 @@
         <v>2241720090</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F36" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2342,10 +2555,16 @@
         <v>2241720228</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F37" s="4">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2359,10 +2578,16 @@
         <v>2241720250</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F38" s="4">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2376,10 +2601,16 @@
         <v>2241720257</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F39" s="4">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2393,10 +2624,16 @@
         <v>2241720225</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F40" s="4">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2410,10 +2647,16 @@
         <v>2241720188</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F41" s="4">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2427,10 +2670,16 @@
         <v>2241720111</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F42" s="4">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2444,10 +2693,16 @@
         <v>2241720035</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F43" s="4">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2461,10 +2716,16 @@
         <v>2241720158</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F44" s="4">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -2478,10 +2739,16 @@
         <v>2241720205</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F45" s="4">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2495,10 +2762,16 @@
         <v>2241720055</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F46" s="4">
+        <v>22</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2512,10 +2785,16 @@
         <v>2241720049</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F47" s="4">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2529,10 +2808,16 @@
         <v>2241720203</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F48" s="4">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2546,10 +2831,16 @@
         <v>2241720217</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F49" s="4">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,10 +2854,16 @@
         <v>2241720150</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F50" s="4">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2580,10 +2877,16 @@
         <v>2241720131</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F51" s="4">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -2597,10 +2900,16 @@
         <v>2241720124</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F52" s="4">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -2614,10 +2923,16 @@
         <v>2241720204</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F53" s="4">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2631,10 +2946,16 @@
         <v>2241720218</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F54" s="4">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2648,10 +2969,16 @@
         <v>2241720260</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F55" s="4">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -2665,10 +2992,16 @@
         <v>2241720261</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F56" s="4">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2682,10 +3015,16 @@
         <v>2241720063</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F57" s="4">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -2699,10 +3038,16 @@
         <v>2341720172</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F58" s="4">
+        <v>23</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -2716,10 +3061,16 @@
         <v>2341720182</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F59" s="4">
+        <v>23</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -2733,10 +3084,16 @@
         <v>2341720234</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F60" s="4">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -2750,10 +3107,16 @@
         <v>2341720256</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F61" s="4">
+        <v>23</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -2767,10 +3130,16 @@
         <v>2341720187</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F62" s="4">
+        <v>23</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -2784,10 +3153,16 @@
         <v>2341720038</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F63" s="4">
+        <v>23</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -2801,10 +3176,16 @@
         <v>2341720232</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F64" s="4">
+        <v>23</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -2818,10 +3199,16 @@
         <v>2341720089</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F65" s="4">
+        <v>23</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -2835,10 +3222,16 @@
         <v>2341720042</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F66" s="4">
+        <v>23</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,10 +3245,16 @@
         <v>2341720103</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F67" s="4">
+        <v>23</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -2869,10 +3268,16 @@
         <v>2341720157</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F68" s="4">
+        <v>23</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -2886,10 +3291,16 @@
         <v>244107023001</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F69" s="4">
+        <v>24</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -2903,10 +3314,16 @@
         <v>2341720235</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F70" s="4">
+        <v>23</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -2920,10 +3337,16 @@
         <v>2341720043</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F71" s="4">
+        <v>23</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -2937,10 +3360,16 @@
         <v>2341720124</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F72" s="4">
+        <v>23</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -2954,10 +3383,16 @@
         <v>2341720194</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F73" s="4">
+        <v>23</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -2971,10 +3406,16 @@
         <v>2341720099</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F74" s="4">
+        <v>23</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -2988,10 +3429,16 @@
         <v>2341720024</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F75" s="4">
+        <v>23</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -3005,10 +3452,16 @@
         <v>2341720013</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F76" s="4">
+        <v>23</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -3022,10 +3475,16 @@
         <v>2341720237</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F77" s="4">
+        <v>23</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -3039,10 +3498,16 @@
         <v>2341720230</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F78" s="4">
+        <v>23</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -3056,10 +3521,16 @@
         <v>2341720167</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F79" s="4">
+        <v>23</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -3073,10 +3544,16 @@
         <v>2341720082</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F80" s="4">
+        <v>23</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -3090,10 +3567,16 @@
         <v>2341720078</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F81" s="4">
+        <v>23</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -3107,10 +3590,16 @@
         <v>2341720163</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F82" s="4">
+        <v>23</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -3124,10 +3613,16 @@
         <v>2341720029</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F83" s="4">
+        <v>23</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -3141,10 +3636,16 @@
         <v>2341720062</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F84" s="4">
+        <v>23</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -3158,10 +3659,16 @@
         <v>2341720149</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F85" s="4">
+        <v>23</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -3175,10 +3682,16 @@
         <v>2341720030</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F86" s="4">
+        <v>23</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -3192,10 +3705,16 @@
         <v>244107020155</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F87" s="4">
+        <v>24</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
@@ -3209,10 +3728,16 @@
         <v>244107020232</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F88" s="4">
+        <v>24</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -3226,10 +3751,16 @@
         <v>244107020001</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F89" s="4">
+        <v>24</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
@@ -3243,10 +3774,16 @@
         <v>244107020219</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F90" s="4">
+        <v>24</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
@@ -3260,10 +3797,16 @@
         <v>244107020079</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F91" s="4">
+        <v>24</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -3277,10 +3820,16 @@
         <v>244107020158</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F92" s="4">
+        <v>24</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
@@ -3294,10 +3843,16 @@
         <v>244107020162</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F93" s="4">
+        <v>24</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
@@ -3311,10 +3866,16 @@
         <v>244107020060</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F94" s="4">
+        <v>24</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -3328,10 +3889,16 @@
         <v>2341720014</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F95" s="4">
+        <v>24</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
@@ -3345,10 +3912,16 @@
         <v>244107020213</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F96" s="4">
+        <v>24</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
@@ -3362,10 +3935,16 @@
         <v>244107020072</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F97" s="4">
+        <v>24</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
@@ -3379,10 +3958,16 @@
         <v>244107020033</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F98" s="4">
+        <v>24</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
@@ -3396,10 +3981,16 @@
         <v>244107020160</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F99" s="4">
+        <v>24</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
@@ -3413,10 +4004,16 @@
         <v>244107020220</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F100" s="4">
+        <v>24</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
@@ -3430,10 +4027,16 @@
         <v>244107020002</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F101" s="4">
+        <v>24</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
@@ -3447,10 +4050,16 @@
         <v>244107020161</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F102" s="4">
+        <v>24</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
@@ -3464,10 +4073,16 @@
         <v>244107020147</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F103" s="4">
+        <v>24</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
@@ -3481,10 +4096,16 @@
         <v>244107020081</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F104" s="4">
+        <v>24</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -3498,10 +4119,16 @@
         <v>244107020004</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F105" s="4">
+        <v>24</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
@@ -3515,10 +4142,16 @@
         <v>244107020211</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F106" s="4">
+        <v>24</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
@@ -3532,10 +4165,16 @@
         <v>244107020084</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F107" s="4">
+        <v>24</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -3549,10 +4188,16 @@
         <v>244107020082</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F108" s="4">
+        <v>24</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -3566,10 +4211,16 @@
         <v>244107020085</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F109" s="4">
+        <v>24</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
@@ -3583,10 +4234,16 @@
         <v>244107020159</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F110" s="4">
+        <v>24</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
@@ -3600,10 +4257,16 @@
         <v>244107020009</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F111" s="4">
+        <v>24</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
@@ -3617,10 +4280,16 @@
         <v>244107020231</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F112" s="4">
+        <v>24</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
@@ -3634,10 +4303,16 @@
         <v>244107020146</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F113" s="4">
+        <v>24</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
@@ -3650,11 +4325,17 @@
       <c r="D114" s="4">
         <v>244107060121</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F114" s="4">
+        <v>24</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
@@ -3667,11 +4348,17 @@
       <c r="D115" s="4">
         <v>244107060060</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F115" s="4">
+        <v>24</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
@@ -3684,11 +4371,17 @@
       <c r="D116" s="4">
         <v>244107060145</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F116" s="4">
+        <v>24</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
@@ -3701,11 +4394,17 @@
       <c r="D117" s="4">
         <v>244107060125</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F117" s="4">
+        <v>24</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
@@ -3718,11 +4417,17 @@
       <c r="D118" s="4">
         <v>244107060046</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="4">
+        <v>24</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
@@ -3735,11 +4440,17 @@
       <c r="D119" s="4">
         <v>244107060103</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F119" s="4">
+        <v>24</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
@@ -3752,11 +4463,17 @@
       <c r="D120" s="4">
         <v>244107060144</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F120" s="4">
+        <v>24</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
@@ -3769,11 +4486,17 @@
       <c r="D121" s="4">
         <v>244107060078</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E121" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F121" s="4">
+        <v>24</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
@@ -3786,11 +4509,17 @@
       <c r="D122" s="4">
         <v>244107060126</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F122" s="4">
+        <v>24</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
@@ -3803,11 +4532,17 @@
       <c r="D123" s="4">
         <v>244107060131</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F123" s="4">
+        <v>24</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
@@ -3820,11 +4555,17 @@
       <c r="D124" s="4">
         <v>244107060150</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F124" s="4">
+        <v>24</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
@@ -3837,11 +4578,17 @@
       <c r="D125" s="4">
         <v>244107060141</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F125" s="4">
+        <v>24</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
@@ -3854,11 +4601,17 @@
       <c r="D126" s="4">
         <v>244107060066</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E126" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F126" s="4">
+        <v>24</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
@@ -3871,11 +4624,17 @@
       <c r="D127" s="4">
         <v>244107060058</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E127" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F127" s="4">
+        <v>24</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
@@ -3888,11 +4647,17 @@
       <c r="D128" s="4">
         <v>244107060146</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E128" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F128" s="4">
+        <v>24</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
@@ -3905,11 +4670,17 @@
       <c r="D129" s="4">
         <v>244107060094</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F129" s="4">
+        <v>24</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
@@ -3922,11 +4693,17 @@
       <c r="D130" s="4">
         <v>244107060107</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F130" s="4">
+        <v>24</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
@@ -3939,11 +4716,17 @@
       <c r="D131" s="4">
         <v>244107060138</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E131" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F131" s="4">
+        <v>24</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
@@ -3956,11 +4739,17 @@
       <c r="D132" s="4">
         <v>244107060013</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F132" s="4">
+        <v>24</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
@@ -3973,11 +4762,17 @@
       <c r="D133" s="4">
         <v>244107060116</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E133" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F133" s="4">
+        <v>24</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
@@ -3990,11 +4785,17 @@
       <c r="D134" s="4">
         <v>244107060065</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E134" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F134" s="4">
+        <v>24</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
@@ -4007,11 +4808,17 @@
       <c r="D135" s="4">
         <v>244107060089</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E135" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F135" s="4">
+        <v>24</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
@@ -4024,11 +4831,17 @@
       <c r="D136" s="4">
         <v>244107060071</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E136" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F136" s="4">
+        <v>24</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
@@ -4041,11 +4854,17 @@
       <c r="D137" s="4">
         <v>244107060056</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F137" s="4">
+        <v>24</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
@@ -4058,11 +4877,17 @@
       <c r="D138" s="1">
         <v>2341760050</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F138" s="1">
+        <v>23</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
@@ -4075,11 +4900,17 @@
       <c r="D139" s="1">
         <v>2341760146</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F139" s="1">
+        <v>23</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
@@ -4092,11 +4923,17 @@
       <c r="D140" s="1">
         <v>2341760091</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F140" s="1">
+        <v>23</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
@@ -4109,11 +4946,17 @@
       <c r="D141" s="1">
         <v>2341760022</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F141" s="1">
+        <v>23</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
@@ -4126,11 +4969,17 @@
       <c r="D142" s="1">
         <v>2341760016</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E142" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F142" s="1">
+        <v>23</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
@@ -4143,11 +4992,17 @@
       <c r="D143" s="1">
         <v>2341760061</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E143" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F143" s="1">
+        <v>23</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
@@ -4160,11 +5015,17 @@
       <c r="D144" s="1">
         <v>2341760073</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E144" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F144" s="1">
+        <v>23</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
@@ -4177,11 +5038,17 @@
       <c r="D145" s="1">
         <v>2341760008</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F145" s="1">
+        <v>23</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
@@ -4194,11 +5061,17 @@
       <c r="D146" s="1">
         <v>2341760023</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F146" s="1">
+        <v>23</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
@@ -4211,11 +5084,17 @@
       <c r="D147" s="1">
         <v>2341760034</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F147" s="1">
+        <v>23</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
@@ -4228,11 +5107,17 @@
       <c r="D148" s="1">
         <v>2341760070</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E148" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F148" s="1">
+        <v>23</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
@@ -4245,11 +5130,17 @@
       <c r="D149" s="1">
         <v>2341760105</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E149" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F149" s="1">
+        <v>23</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
@@ -4262,11 +5153,17 @@
       <c r="D150" s="1">
         <v>2341760140</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E150" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F150" s="1">
+        <v>23</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
@@ -4279,11 +5176,17 @@
       <c r="D151" s="1">
         <v>2341760134</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E151" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F151" s="1">
+        <v>23</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
@@ -4296,11 +5199,17 @@
       <c r="D152" s="1">
         <v>2341760118</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E152" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F152" s="1">
+        <v>23</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
@@ -4313,11 +5222,17 @@
       <c r="D153" s="1">
         <v>2341760042</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F153" s="1">
+        <v>23</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
@@ -4330,11 +5245,17 @@
       <c r="D154" s="1">
         <v>2341760078</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E154" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F154" s="1">
+        <v>23</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
@@ -4347,11 +5268,17 @@
       <c r="D155" s="1">
         <v>2341760117</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E155" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F155" s="1">
+        <v>23</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
@@ -4364,11 +5291,17 @@
       <c r="D156" s="1">
         <v>2341760013</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E156" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F156" s="1">
+        <v>23</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
@@ -4381,11 +5314,17 @@
       <c r="D157" s="1">
         <v>2341760094</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E157" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F157" s="1">
+        <v>23</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
@@ -4398,11 +5337,17 @@
       <c r="D158" s="1">
         <v>2341760190</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F158" s="1">
+        <v>23</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
@@ -4415,11 +5360,17 @@
       <c r="D159" s="1">
         <v>2341760115</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E159" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F159" s="1">
+        <v>23</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
@@ -4432,11 +5383,17 @@
       <c r="D160" s="1">
         <v>2341760012</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E160" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F160" s="1">
+        <v>23</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
@@ -4449,11 +5406,17 @@
       <c r="D161" s="1">
         <v>2341760063</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F161" s="1">
+        <v>23</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
@@ -4466,11 +5429,17 @@
       <c r="D162" s="1">
         <v>2341760035</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F162" s="1">
+        <v>23</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
@@ -4483,11 +5452,17 @@
       <c r="D163" s="1">
         <v>2241760038</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F163" s="1">
+        <v>23</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
@@ -4500,11 +5475,17 @@
       <c r="D164" s="1">
         <v>2341760015</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E164" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F164" s="1">
+        <v>23</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
@@ -4517,11 +5498,17 @@
       <c r="D165" s="1">
         <v>2341760106</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F165" s="1">
+        <v>23</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
@@ -4534,11 +5521,17 @@
       <c r="D166" s="1">
         <v>2341760082</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E166" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F166" s="1">
+        <v>23</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
@@ -4551,11 +5544,17 @@
       <c r="D167" s="1">
         <v>2341760184</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F167" s="1">
+        <v>23</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
@@ -4568,11 +5567,17 @@
       <c r="D168" s="1">
         <v>2241760124</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F168" s="1">
+        <v>22</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
@@ -4585,11 +5590,17 @@
       <c r="D169" s="1">
         <v>2241760058</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E169" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F169" s="1">
+        <v>22</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
@@ -4602,11 +5613,17 @@
       <c r="D170" s="1">
         <v>2241760087</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F170" s="1">
+        <v>22</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
@@ -4619,11 +5636,17 @@
       <c r="D171" s="1">
         <v>2241760136</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E171" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F171" s="1">
+        <v>22</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
@@ -4636,11 +5659,17 @@
       <c r="D172" s="1">
         <v>2241760099</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E172" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F172" s="1">
+        <v>22</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
@@ -4653,11 +5682,17 @@
       <c r="D173" s="1">
         <v>2241760084</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F173" s="1">
+        <v>22</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
@@ -4670,11 +5705,17 @@
       <c r="D174" s="1">
         <v>2241760027</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F174" s="1">
+        <v>22</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
@@ -4687,11 +5728,17 @@
       <c r="D175" s="1">
         <v>2241760122</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F175" s="1">
+        <v>22</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
@@ -4704,11 +5751,17 @@
       <c r="D176" s="1">
         <v>2241760064</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F176" s="1">
+        <v>22</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
@@ -4721,11 +5774,17 @@
       <c r="D177" s="1">
         <v>2241760024</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F177" s="1">
+        <v>22</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
@@ -4738,11 +5797,17 @@
       <c r="D178" s="1">
         <v>2241760132</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F178" s="1">
+        <v>22</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
@@ -4755,11 +5820,17 @@
       <c r="D179" s="1">
         <v>2241760018</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F179" s="1">
+        <v>22</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
@@ -4772,11 +5843,17 @@
       <c r="D180" s="1">
         <v>2241760009</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F180" s="1">
+        <v>22</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
@@ -4789,11 +5866,17 @@
       <c r="D181" s="1">
         <v>2241760021</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F181" s="1">
+        <v>22</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
@@ -4806,11 +5889,17 @@
       <c r="D182" s="1">
         <v>2241760119</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F182" s="1">
+        <v>22</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>195</v>
       </c>
@@ -4823,11 +5912,17 @@
       <c r="D183" s="1">
         <v>2241760106</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F183" s="1">
+        <v>22</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>196</v>
       </c>
@@ -4840,11 +5935,17 @@
       <c r="D184" s="1">
         <v>2241760140</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F184" s="1">
+        <v>22</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>197</v>
       </c>
@@ -4857,11 +5958,17 @@
       <c r="D185" s="1">
         <v>2241760002</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F185" s="1">
+        <v>22</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>198</v>
       </c>
@@ -4874,11 +5981,17 @@
       <c r="D186" s="1">
         <v>2241760059</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F186" s="1">
+        <v>22</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>199</v>
       </c>
@@ -4891,11 +6004,17 @@
       <c r="D187" s="1">
         <v>2241760005</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F187" s="1">
+        <v>22</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>200</v>
       </c>
@@ -4908,11 +6027,17 @@
       <c r="D188" s="1">
         <v>2241760142</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E188" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F188" s="1">
+        <v>22</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>201</v>
       </c>
@@ -4925,11 +6050,17 @@
       <c r="D189" s="1">
         <v>2241760131</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F189" s="1">
+        <v>22</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>202</v>
       </c>
@@ -4942,11 +6073,17 @@
       <c r="D190" s="1">
         <v>2141762102</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F190" s="1">
+        <v>21</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>203</v>
       </c>
@@ -4959,11 +6096,17 @@
       <c r="D191" s="1">
         <v>2141764160</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F191" s="1">
+        <v>21</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>204</v>
       </c>
@@ -4976,11 +6119,17 @@
       <c r="D192" s="1">
         <v>2141762135</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F192" s="1">
+        <v>21</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>205</v>
       </c>
@@ -4993,11 +6142,17 @@
       <c r="D193" s="1">
         <v>2141762063</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F193" s="1">
+        <v>21</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>206</v>
       </c>
@@ -5010,11 +6165,17 @@
       <c r="D194" s="1">
         <v>2141762093</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E194" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F194" s="1">
+        <v>21</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>207</v>
       </c>
@@ -5027,11 +6188,17 @@
       <c r="D195" s="1">
         <v>2141762090</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E195" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F195" s="1">
+        <v>21</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>208</v>
       </c>
@@ -5044,11 +6211,17 @@
       <c r="D196" s="1">
         <v>2141762017</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E196" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F196" s="1">
+        <v>21</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>209</v>
       </c>
@@ -5061,11 +6234,17 @@
       <c r="D197" s="1">
         <v>2141762120</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F197" s="1">
+        <v>21</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>210</v>
       </c>
@@ -5078,11 +6257,17 @@
       <c r="D198" s="1">
         <v>2141762143</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E198" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F198" s="1">
+        <v>21</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>211</v>
       </c>
@@ -5095,11 +6280,17 @@
       <c r="D199" s="1">
         <v>2141762029</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F199" s="1">
+        <v>21</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>212</v>
       </c>
@@ -5112,11 +6303,17 @@
       <c r="D200" s="1">
         <v>2141762026</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F200" s="1">
+        <v>21</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>213</v>
       </c>
@@ -5129,11 +6326,17 @@
       <c r="D201" s="1">
         <v>2141762044</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F201" s="1">
+        <v>21</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>214</v>
       </c>
@@ -5146,11 +6349,17 @@
       <c r="D202" s="1">
         <v>2141762138</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E202" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F202" s="1">
+        <v>21</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>215</v>
       </c>
@@ -5163,11 +6372,17 @@
       <c r="D203" s="1">
         <v>2141762074</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E203" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F203" s="1">
+        <v>21</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>216</v>
       </c>
@@ -5180,11 +6395,17 @@
       <c r="D204" s="1">
         <v>2141762104</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F204" s="1">
+        <v>21</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>217</v>
       </c>
@@ -5197,11 +6418,17 @@
       <c r="D205" s="1">
         <v>2141762022</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F205" s="1">
+        <v>21</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>218</v>
       </c>
@@ -5214,11 +6441,17 @@
       <c r="D206" s="1">
         <v>2141762100</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F206" s="1">
+        <v>21</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>219</v>
       </c>
@@ -5231,11 +6464,17 @@
       <c r="D207" s="1">
         <v>2141762105</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F207" s="1">
+        <v>21</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>220</v>
       </c>
@@ -5248,11 +6487,17 @@
       <c r="D208" s="1">
         <v>2141762050</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F208" s="1">
+        <v>21</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>221</v>
       </c>
@@ -5265,11 +6510,17 @@
       <c r="D209" s="1">
         <v>2141762027</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F209" s="1">
+        <v>21</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>222</v>
       </c>
@@ -5282,11 +6533,17 @@
       <c r="D210" s="1">
         <v>2141762006</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F210" s="1">
+        <v>21</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>223</v>
       </c>
@@ -5299,11 +6556,17 @@
       <c r="D211" s="1">
         <v>2141762131</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E211" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F211" s="1">
+        <v>21</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>224</v>
       </c>
@@ -5316,7 +6579,13 @@
       <c r="D212" s="1">
         <v>2141762146</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E212" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F212" s="1">
+        <v>21</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>10</v>
       </c>
     </row>
